--- a/tests/ArcGraphModel.Tests/Fixtures/isa.investigation.xlsx
+++ b/tests/ArcGraphModel.Tests/Fixtures/isa.investigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\ArcGraphModel\tests\ArcGraphModel.IO.Tests\Fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schne\Source\repos\nfdi4plants\ArcGraphModel\tests\ArcGraphModel.Tests\Fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84808EE5-2048-46A2-ACFE-172AF51E66E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B821210-FFDF-4490-BF03-46E14BFA6AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_investigation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
   <si>
     <t>ONTOLOGY SOURCE REFERENCE</t>
   </si>
@@ -162,12 +162,6 @@
     <t>Investigation Person Roles Term Source REF</t>
   </si>
   <si>
-    <t>Comment[&lt;Investigation Person ORCID&gt;]</t>
-  </si>
-  <si>
-    <t>dsafnljk</t>
-  </si>
-  <si>
     <t>STUDY</t>
   </si>
   <si>
@@ -370,9 +364,6 @@
   </si>
   <si>
     <t>Study Person Roles Term Source REF</t>
-  </si>
-  <si>
-    <t>Comment[&lt;Investigation Person lol&gt;]</t>
   </si>
   <si>
     <t>müller</t>
@@ -869,48 +860,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -926,7 +917,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1222,13 +1213,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
@@ -1361,10 +1352,10 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1375,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,113 +1472,101 @@
       <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
       <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -1636,11 +1615,23 @@
       <c r="A57" t="s">
         <v>71</v>
       </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -1702,100 +1693,88 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>96</v>
       </c>
@@ -1804,18 +1783,30 @@
       <c r="A81" t="s">
         <v>97</v>
       </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -1823,13 +1814,13 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1906,28 +1897,6 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1944,7 +1913,7 @@
       <selection activeCell="I19" activeCellId="1" sqref="A1 I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
